--- a/Protokoll 12/Ver 14 Berechnungen.xlsx
+++ b/Protokoll 12/Ver 14 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="60" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="4140" yWindow="3200" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>b</t>
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>rel u</t>
+  </si>
+  <si>
+    <t>cos</t>
   </si>
 </sst>
 </file>
@@ -73,8 +82,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,7 +134,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -131,6 +152,12 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -148,6 +175,12 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,7 +513,7 @@
   <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I3" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -492,6 +525,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
@@ -504,6 +546,9 @@
         <f>(B3-A3)/31.75</f>
         <v>2.7968503937007871</v>
       </c>
+      <c r="D3">
+        <v>31.75</v>
+      </c>
       <c r="E3">
         <v>0.1</v>
       </c>
@@ -512,8 +557,8 @@
         <v>1.9323570188573571E-3</v>
       </c>
       <c r="G3">
-        <f>C3*F3</f>
-        <v>5.4045134889616781E-3</v>
+        <f>SQRT(((1/D3)*E3)^2+(((-B3+A3)/D3^2)*K3)^2+((1/D3)*K3)^2)</f>
+        <v>9.871075237972593E-3</v>
       </c>
       <c r="I3">
         <f>COS(C3/2)</f>
@@ -524,7 +569,7 @@
       </c>
       <c r="L3">
         <f>(1/2)*SIN(C3/2)*G3</f>
-        <v>2.6622115784684804E-3</v>
+        <v>4.8623971138450949E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -538,27 +583,30 @@
         <f t="shared" ref="C4:C10" si="0">(B4-A4)/31.75</f>
         <v>2.6425196850393702</v>
       </c>
+      <c r="D4">
+        <v>31.75</v>
+      </c>
       <c r="E4">
         <v>0.1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="1">SQRT((E4/B4)^2+(0.05/31.75)^2)</f>
+        <f>SQRT((E4/B4)^2+(0.05/31.75)^2)</f>
         <v>1.9682250813763767E-3</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="2">C4*F4</f>
-        <v>5.2010735221252914E-3</v>
+        <f t="shared" ref="G4:G10" si="1">SQRT(((1/D4)*E4)^2+(((-B4+A4)/D4^2)*K4)^2+((1/D4)*K4)^2)</f>
+        <v>9.4398436563661679E-3</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I10" si="3">COS(C4/2)</f>
+        <f t="shared" ref="I4:I10" si="2">COS(C4/2)</f>
         <v>0.24695482655022133</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="4">(1/2)*SIN(C4/2)*G4</f>
-        <v>2.5199903184038182E-3</v>
+        <f t="shared" ref="L4:L10" si="3">(1/2)*SIN(C4/2)*G4</f>
+        <v>4.5737316575305649E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -572,27 +620,30 @@
         <f t="shared" si="0"/>
         <v>2.3748031496062989</v>
       </c>
+      <c r="D5">
+        <v>31.75</v>
+      </c>
       <c r="E5">
         <v>0.1</v>
       </c>
       <c r="F5">
+        <f t="shared" ref="F4:F10" si="4">SQRT((E5/B5)^2+(0.05/31.75)^2)</f>
+        <v>2.0455539343384476E-3</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>2.0455539343384476E-3</v>
-      </c>
-      <c r="G5">
+        <v>8.7055083921389852E-3</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>4.8577879259565021E-3</v>
-      </c>
-      <c r="I5">
+        <v>0.3740709121740784</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="3"/>
-        <v>0.3740709121740784</v>
-      </c>
-      <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>2.2525565135646302E-3</v>
+        <v>4.0367446935722423E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -606,27 +657,30 @@
         <f t="shared" si="0"/>
         <v>2.4472440944881892</v>
       </c>
+      <c r="D6">
+        <v>31.75</v>
+      </c>
       <c r="E6">
         <v>0.2</v>
       </c>
       <c r="F6">
+        <f t="shared" si="4"/>
+        <v>2.9842069311410281E-3</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>2.9842069311410281E-3</v>
-      </c>
-      <c r="G6">
+        <v>1.0440839732018741E-2</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>7.3030827889656036E-3</v>
-      </c>
-      <c r="I6">
+        <v>0.34024203733729957</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="3"/>
-        <v>0.34024203733729957</v>
-      </c>
-      <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
-        <v>3.433682746947856E-3</v>
+        <v>4.9089586257529249E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -640,27 +694,30 @@
         <f t="shared" si="0"/>
         <v>2.0566929133858265</v>
       </c>
+      <c r="D7">
+        <v>31.75</v>
+      </c>
       <c r="E7">
         <v>0.3</v>
       </c>
       <c r="F7">
+        <f t="shared" si="4"/>
+        <v>4.746473811990717E-3</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>4.746473811990717E-3</v>
-      </c>
-      <c r="G7">
+        <v>1.1881150654040154E-2</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>9.7620390526927166E-3</v>
-      </c>
-      <c r="I7">
+        <v>0.51623572151961727</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.51623572151961727</v>
-      </c>
-      <c r="K7">
-        <v>0.1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
-        <v>4.1803322962651775E-3</v>
+        <v>5.0877851981319649E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -674,27 +731,30 @@
         <f t="shared" si="0"/>
         <v>1.6062992125984252</v>
       </c>
+      <c r="D8">
+        <v>31.75</v>
+      </c>
       <c r="E8">
         <v>0.3</v>
       </c>
       <c r="F8">
+        <f t="shared" si="4"/>
+        <v>5.854863647470036E-3</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>5.854863647470036E-3</v>
-      </c>
-      <c r="G8">
+        <v>1.1171204295988973E-2</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>9.404662866802263E-3</v>
-      </c>
-      <c r="I8">
+        <v>0.69444386815068593</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="3"/>
-        <v>0.69444386815068593</v>
-      </c>
-      <c r="K8">
-        <v>0.1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>3.3835479164336145E-3</v>
+        <v>4.019102604216983E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -702,33 +762,36 @@
         <v>1.8</v>
       </c>
       <c r="B9">
-        <v>-59.7</v>
+        <v>59.7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1.9370078740157479</v>
+        <v>1.8236220472440947</v>
+      </c>
+      <c r="D9">
+        <v>31.75</v>
       </c>
       <c r="E9">
         <v>0.3</v>
       </c>
       <c r="F9">
+        <f t="shared" si="4"/>
+        <v>5.2661079117889724E-3</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>5.2661079117889724E-3</v>
-      </c>
-      <c r="G9">
+        <v>1.1497399284300448E-2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>-1.0200492490551867E-2</v>
-      </c>
-      <c r="I9">
+        <v>0.61231493386472902</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>0.56653297906060662</v>
-      </c>
-      <c r="K9">
-        <v>0.1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>4.2028021564819631E-3</v>
+        <v>4.545002145374219E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -742,27 +805,30 @@
         <f t="shared" si="0"/>
         <v>1.1086614173228344</v>
       </c>
+      <c r="D10">
+        <v>31.75</v>
+      </c>
       <c r="E10">
         <v>0.3</v>
       </c>
       <c r="F10">
+        <f t="shared" si="4"/>
+        <v>8.070700735436474E-3</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>8.070700735436474E-3</v>
-      </c>
-      <c r="G10">
+        <v>1.0554297407119502E-2</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>8.9476745161374428E-3</v>
-      </c>
-      <c r="I10">
+        <v>0.85025292847342659</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="3"/>
-        <v>0.85025292847342659</v>
-      </c>
-      <c r="K10">
-        <v>0.1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
-        <v>2.354913184180153E-3</v>
+        <v>2.7777557251281596E-3</v>
       </c>
     </row>
   </sheetData>
